--- a/co_po_web/website/assessment_template (1).xlsx
+++ b/co_po_web/website/assessment_template (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_clg\co_po_web\co_po_web\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC8C9F3-9C40-4176-A9C8-4F24596DB681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EE4849-46BB-4A99-8554-015709C0B107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2970" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessment Template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>adhiyamaan</t>
   </si>
@@ -37,9 +37,6 @@
     <t>CO1</t>
   </si>
   <si>
-    <t>CO2</t>
-  </si>
-  <si>
     <t>MAX MARKS</t>
   </si>
   <si>
@@ -83,6 +80,63 @@
   </si>
   <si>
     <t>Q10</t>
+  </si>
+  <si>
+    <t>STUDENT NAME</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>asf</t>
+  </si>
+  <si>
+    <t>asrr</t>
+  </si>
+  <si>
+    <t>erer</t>
+  </si>
+  <si>
+    <t>eg</t>
+  </si>
+  <si>
+    <t>erg</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>eeg</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>tg</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>rtg</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>rg</t>
   </si>
 </sst>
 </file>
@@ -423,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +495,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -451,7 +505,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -461,12 +515,9 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -475,10 +526,10 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -490,153 +541,162 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="I6" t="s">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>101</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1.5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
         <v>8</v>
       </c>
-      <c r="J6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>101</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>1.5</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
         <v>102</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <v>6</v>
@@ -644,186 +704,201 @@
       <c r="L9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
         <v>103</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+      <c r="D10">
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
         <v>4</v>
       </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
       <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
         <v>8</v>
       </c>
-      <c r="L10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
         <v>104</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
         <v>7.5</v>
       </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
       <c r="K11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
         <v>105</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
       <c r="D12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>1.5</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
         <v>8</v>
       </c>
-      <c r="J12">
-        <v>7</v>
-      </c>
       <c r="K12">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
         <v>106</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
         <v>107</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -831,186 +906,201 @@
       <c r="L14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
         <v>108</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="D15">
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
         <v>4</v>
       </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
       <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
         <v>8</v>
       </c>
-      <c r="L15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
         <v>109</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
         <v>7.5</v>
       </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
       <c r="K16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
         <v>110</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
       <c r="D17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>1.5</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
         <v>8</v>
       </c>
-      <c r="J17">
-        <v>7</v>
-      </c>
       <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
         <v>6.5</v>
       </c>
-      <c r="L17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
         <v>111</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
         <v>112</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -1018,186 +1108,201 @@
       <c r="L19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
         <v>113</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
+      <c r="D20">
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
         <v>4</v>
       </c>
-      <c r="J20">
-        <v>6</v>
-      </c>
       <c r="K20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
         <v>114</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
         <v>7.5</v>
       </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
       <c r="K21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
         <v>115</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
       <c r="D22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
         <v>8</v>
       </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
       <c r="K22">
+        <v>7</v>
+      </c>
+      <c r="L22">
         <v>6.5</v>
       </c>
-      <c r="L22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
         <v>116</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
         <v>117</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -1205,186 +1310,201 @@
       <c r="L24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
         <v>118</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="D25">
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
         <v>4</v>
       </c>
-      <c r="J25">
-        <v>6</v>
-      </c>
       <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
         <v>8</v>
       </c>
-      <c r="L25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
         <v>119</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
         <v>7.5</v>
       </c>
-      <c r="J26">
-        <v>5</v>
-      </c>
       <c r="K26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
         <v>120</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
       <c r="D27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>1.5</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
         <v>8</v>
       </c>
-      <c r="J27">
-        <v>7</v>
-      </c>
       <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27">
         <v>6.5</v>
       </c>
-      <c r="L27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>21</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
         <v>121</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>22</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
         <v>122</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K29">
         <v>6</v>
@@ -1392,192 +1512,210 @@
       <c r="L29">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>23</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
         <v>123</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
+      <c r="D30">
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
         <v>4</v>
       </c>
-      <c r="J30">
-        <v>6</v>
-      </c>
       <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30">
         <v>8</v>
       </c>
-      <c r="L30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
         <v>124</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
         <v>7.5</v>
       </c>
-      <c r="J31">
-        <v>5</v>
-      </c>
       <c r="K31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>25</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
         <v>125</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
       <c r="D32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>1.5</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
         <v>8</v>
       </c>
-      <c r="J32">
-        <v>7</v>
-      </c>
       <c r="K32">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>26</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
         <v>126</v>
       </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>27</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
         <v>127</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K34">
         <v>6</v>
       </c>
       <c r="L34">
         <v>6</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
